--- a/biology/Zoologie/Hirondelle_à_ailes_hérissées/Hirondelle_à_ailes_hérissées.xlsx
+++ b/biology/Zoologie/Hirondelle_à_ailes_hérissées/Hirondelle_à_ailes_hérissées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_ailes_h%C3%A9riss%C3%A9es</t>
+          <t>Hirondelle_à_ailes_hérissées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stelgidopteryx serripennis
 L'Hirondelle à ailes hérissées (Stelgidopteryx serripennis) est une espèce de passereau appartenant à la famille des Hirundinidae vivant en Amérique du Nord et en Amérique centrale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_ailes_h%C3%A9riss%C3%A9es</t>
+          <t>Hirondelle_à_ailes_hérissées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_ailes_h%C3%A9riss%C3%A9es</t>
+          <t>Hirondelle_à_ailes_hérissées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hirondelle à ailes hérissées se distingue par sa simplicité parmi les espèces d'hirondelles. Son plumage arbore une teinte brune uniforme, agrémentée d'une fine bande brunâtre traversant sa poitrine. Dotée d'ailes relativement larges et d'une queue courte et carrée, elle affectionne particulièrement les zones environnantes des plans d'eau.
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_ailes_h%C3%A9riss%C3%A9es</t>
+          <t>Hirondelle_à_ailes_hérissées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle élit domicile dans des terriers aménagés le long des berges des cours d'eau ainsi que dans d'autres types de cavités et de crevasses. Contrairement à l'Hirondelle de rivage, eurasienne, elle évite la nidification en colonies.
 </t>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_ailes_h%C3%A9riss%C3%A9es</t>
+          <t>Hirondelle_à_ailes_hérissées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,10 +620,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Reproduction
-Vocalisations et sons
-Son cri est un bourdonnement grave, avec une légère nuance grinçante et ascendante[1].
+          <t>Vocalisations et sons</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son cri est un bourdonnement grave, avec une légère nuance grinçante et ascendante.
 </t>
         </is>
       </c>
